--- a/Employee_Info/Employee_Info/SourceExcel/StatusOfUploadData.xlsx
+++ b/Employee_Info/Employee_Info/SourceExcel/StatusOfUploadData.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>Name</t>
   </si>
@@ -44,37 +44,106 @@
     <t>Status of Process</t>
   </si>
   <si>
-    <t>ExcelTest1</t>
+    <t>TestPerson1</t>
   </si>
   <si>
     <t>M</t>
   </si>
   <si>
-    <t>excel@gmal.com</t>
+    <t>2020/11/03</t>
+  </si>
+  <si>
+    <t>Person1@gmail.com</t>
+  </si>
+  <si>
+    <t>Madurai</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>User Already Exist</t>
+  </si>
+  <si>
+    <t>TestPerson2</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>2020/11/04</t>
+  </si>
+  <si>
+    <t>Person2@gmail.com</t>
   </si>
   <si>
     <t>chennai</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>User Already Exist</t>
-  </si>
-  <si>
-    <t>ExcelTest2</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>e2xcel@gmal.com</t>
-  </si>
-  <si>
-    <t>ExcelTest</t>
-  </si>
-  <si>
-    <t>3@gmal.com</t>
+    <t>2</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>TestPerson1D</t>
+  </si>
+  <si>
+    <t>2020/11/05</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>2020/11/06</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Name field required</t>
+  </si>
+  <si>
+    <t>TestPerson3</t>
+  </si>
+  <si>
+    <t>Gender field required</t>
+  </si>
+  <si>
+    <t>2020/11/08</t>
+  </si>
+  <si>
+    <t>2020/11/09</t>
+  </si>
+  <si>
+    <t>Email field required</t>
+  </si>
+  <si>
+    <t>2020/11/10</t>
+  </si>
+  <si>
+    <t>Address field required</t>
+  </si>
+  <si>
+    <t>2020/11/11</t>
+  </si>
+  <si>
+    <t>Technology field required</t>
+  </si>
+  <si>
+    <t>2020/11/12</t>
+  </si>
+  <si>
+    <t>Branch field required</t>
+  </si>
+  <si>
+    <t>2020/11/13</t>
+  </si>
+  <si>
+    <t>Marital Status field required</t>
   </si>
 </sst>
 </file>
@@ -93,7 +162,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -103,6 +172,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF81D41A" tint="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFE0" tint="0"/>
       </patternFill>
     </fill>
     <fill>
@@ -130,11 +204,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="3" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="4" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -145,13 +220,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.6704156058175" customWidth="1" style="1"/>
+    <col min="1" max="1" width="13.5841064453125" customWidth="1" style="1"/>
     <col min="2" max="2" width="9.140625" customWidth="1" style="1"/>
     <col min="3" max="3" width="12.6214011056083" customWidth="1" style="1"/>
     <col min="4" max="4" width="9.140625" customWidth="1" style="1"/>
@@ -160,7 +235,7 @@
     <col min="7" max="7" width="9.140625" customWidth="1" style="1"/>
     <col min="8" max="8" width="9.140625" customWidth="1" style="1"/>
     <col min="9" max="9" width="9.140625" customWidth="1" style="1"/>
-    <col min="10" max="10" width="17.2088263375419" customWidth="1" style="1"/>
+    <col min="10" max="10" width="26.1084725516183" customWidth="1" style="1"/>
     <col min="11" max="16384" width="9.140625" customWidth="1" style="1"/>
   </cols>
   <sheetData>
@@ -197,88 +272,344 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="D2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="1" t="s">
+      <c r="F2" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="G2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="4"/>
+      <c r="J2" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="1" t="s">
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="1" t="s">
+      <c r="I4" s="4"/>
+      <c r="J4" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="4"/>
+      <c r="J5" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="4"/>
+      <c r="J6" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="I7" s="4"/>
+      <c r="J7" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="4"/>
+      <c r="J8" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="4"/>
+      <c r="J9" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="4"/>
+      <c r="J10" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="4"/>
+      <c r="J11" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" s="4"/>
+      <c r="J12" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="3"/>
     </row>
   </sheetData>
   <headerFooter/>
